--- a/biology/Zoologie/Centre_de_la_mer_et_des_eaux/Centre_de_la_mer_et_des_eaux.xlsx
+++ b/biology/Zoologie/Centre_de_la_mer_et_des_eaux/Centre_de_la_mer_et_des_eaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Centre de la mer et des eaux[1], était un musée situé dans l'Institut océanographique de Paris au 195, rue Saint-Jacques dans le 5e arrondissement de Paris, qui a fonctionné durant 32 ans de 1978 à 2010[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre de la mer et des eaux, était un musée situé dans l'Institut océanographique de Paris au 195, rue Saint-Jacques dans le 5e arrondissement de Paris, qui a fonctionné durant 32 ans de 1978 à 2010.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consacré à la diffusion de la culture scientifique concernant le monde marin[3] et au développement de la connaissance de l'océan, il comportait une bibliothèque, sept aquariums, et présentait des expositions permanente et temporaires[4], ainsi que médiations scientifiques, des animations et des ateliers[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consacré à la diffusion de la culture scientifique concernant le monde marin et au développement de la connaissance de l'océan, il comportait une bibliothèque, sept aquariums, et présentait des expositions permanente et temporaires, ainsi que médiations scientifiques, des animations et des ateliers.
 </t>
         </is>
       </c>
